--- a/spec/fixtures/three_invalid_orphans_xlsx.xlsx
+++ b/spec/fixtures/three_invalid_orphans_xlsx.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25007"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25203"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="15820" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="15520" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="108">
   <si>
     <t>الرقم المسلسل</t>
   </si>
@@ -337,13 +337,19 @@
   </si>
   <si>
     <t>أربعة</t>
+  </si>
+  <si>
+    <t>موجود</t>
+  </si>
+  <si>
+    <t>الأب متوفي؟</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -371,8 +377,28 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="11"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -397,8 +423,14 @@
         <bgColor rgb="FFD8D8D8"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="23">
+  <borders count="25">
     <border>
       <left/>
       <right/>
@@ -696,11 +728,39 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -802,6 +862,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -851,8 +912,16 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1182,10 +1251,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AL20"/>
+  <dimension ref="A1:AM17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="X1" workbookViewId="0">
-      <selection activeCell="X4" sqref="X4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="17.33203125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
@@ -1193,238 +1262,245 @@
     <col min="1" max="1" width="11.33203125" customWidth="1"/>
     <col min="2" max="2" width="15.83203125" customWidth="1"/>
     <col min="3" max="3" width="12.5" customWidth="1"/>
-    <col min="4" max="7" width="8.6640625" customWidth="1"/>
-    <col min="8" max="8" width="14.5" customWidth="1"/>
-    <col min="9" max="9" width="14.33203125" customWidth="1"/>
-    <col min="10" max="10" width="11.5" customWidth="1"/>
-    <col min="11" max="11" width="10.5" customWidth="1"/>
-    <col min="12" max="15" width="8.6640625" customWidth="1"/>
-    <col min="16" max="16" width="13.1640625" customWidth="1"/>
-    <col min="17" max="17" width="8.6640625" customWidth="1"/>
-    <col min="18" max="18" width="15" customWidth="1"/>
-    <col min="19" max="25" width="8.6640625" customWidth="1"/>
-    <col min="26" max="26" width="9" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="12.83203125" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="8.6640625" customWidth="1"/>
-    <col min="29" max="30" width="13.1640625" customWidth="1"/>
-    <col min="31" max="31" width="8.6640625" customWidth="1"/>
-    <col min="32" max="32" width="15.83203125" customWidth="1"/>
-    <col min="33" max="34" width="9.1640625" customWidth="1"/>
-    <col min="35" max="37" width="12" customWidth="1"/>
-    <col min="38" max="38" width="30.1640625" customWidth="1"/>
+    <col min="4" max="5" width="8.6640625" customWidth="1"/>
+    <col min="6" max="6" width="8.6640625" style="35" customWidth="1"/>
+    <col min="7" max="8" width="8.6640625" customWidth="1"/>
+    <col min="9" max="9" width="14.5" customWidth="1"/>
+    <col min="10" max="10" width="14.33203125" customWidth="1"/>
+    <col min="11" max="11" width="11.5" customWidth="1"/>
+    <col min="12" max="12" width="10.5" customWidth="1"/>
+    <col min="13" max="16" width="8.6640625" customWidth="1"/>
+    <col min="17" max="17" width="13.1640625" customWidth="1"/>
+    <col min="18" max="18" width="8.6640625" customWidth="1"/>
+    <col min="19" max="19" width="15" customWidth="1"/>
+    <col min="20" max="26" width="8.6640625" customWidth="1"/>
+    <col min="27" max="27" width="9" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="8.6640625" customWidth="1"/>
+    <col min="30" max="31" width="13.1640625" customWidth="1"/>
+    <col min="32" max="32" width="8.6640625" customWidth="1"/>
+    <col min="33" max="33" width="15.83203125" customWidth="1"/>
+    <col min="34" max="35" width="9.1640625" customWidth="1"/>
+    <col min="36" max="38" width="12" customWidth="1"/>
+    <col min="39" max="39" width="30.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" ht="25.5" customHeight="1">
-      <c r="A1" s="37" t="s">
+    <row r="1" spans="1:39" ht="25.5" customHeight="1">
+      <c r="A1" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="35" t="s">
+      <c r="B1" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="50" t="s">
+      <c r="C1" s="51" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="36"/>
-      <c r="G1" s="36"/>
-      <c r="H1" s="36"/>
-      <c r="I1" s="36"/>
-      <c r="J1" s="36"/>
-      <c r="K1" s="48" t="s">
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="37"/>
+      <c r="H1" s="37"/>
+      <c r="I1" s="37"/>
+      <c r="J1" s="37"/>
+      <c r="K1" s="37"/>
+      <c r="L1" s="49" t="s">
         <v>3</v>
       </c>
-      <c r="L1" s="36"/>
-      <c r="M1" s="36"/>
-      <c r="N1" s="36"/>
-      <c r="O1" s="36"/>
-      <c r="P1" s="36"/>
-      <c r="Q1" s="36"/>
-      <c r="R1" s="36"/>
-      <c r="S1" s="49" t="s">
+      <c r="M1" s="37"/>
+      <c r="N1" s="37"/>
+      <c r="O1" s="37"/>
+      <c r="P1" s="37"/>
+      <c r="Q1" s="37"/>
+      <c r="R1" s="37"/>
+      <c r="S1" s="37"/>
+      <c r="T1" s="50" t="s">
         <v>4</v>
       </c>
-      <c r="T1" s="36"/>
-      <c r="U1" s="36"/>
-      <c r="V1" s="36"/>
-      <c r="W1" s="36"/>
-      <c r="X1" s="36"/>
-      <c r="Y1" s="36"/>
-      <c r="Z1" s="36"/>
-      <c r="AA1" s="36"/>
-      <c r="AB1" s="36"/>
-      <c r="AC1" s="36"/>
-      <c r="AD1" s="36"/>
-      <c r="AE1" s="43" t="s">
+      <c r="U1" s="37"/>
+      <c r="V1" s="37"/>
+      <c r="W1" s="37"/>
+      <c r="X1" s="37"/>
+      <c r="Y1" s="37"/>
+      <c r="Z1" s="37"/>
+      <c r="AA1" s="37"/>
+      <c r="AB1" s="37"/>
+      <c r="AC1" s="37"/>
+      <c r="AD1" s="37"/>
+      <c r="AE1" s="37"/>
+      <c r="AF1" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="AF1" s="36"/>
-      <c r="AG1" s="36"/>
-      <c r="AH1" s="36"/>
-      <c r="AI1" s="36"/>
-      <c r="AJ1" s="36"/>
-      <c r="AK1" s="36"/>
-      <c r="AL1" s="36"/>
+      <c r="AG1" s="37"/>
+      <c r="AH1" s="37"/>
+      <c r="AI1" s="37"/>
+      <c r="AJ1" s="37"/>
+      <c r="AK1" s="37"/>
+      <c r="AL1" s="37"/>
+      <c r="AM1" s="37"/>
     </row>
-    <row r="2" spans="1:38" ht="29.25" customHeight="1">
-      <c r="A2" s="36"/>
-      <c r="B2" s="36"/>
-      <c r="C2" s="40" t="s">
+    <row r="2" spans="1:39" ht="29.25" customHeight="1">
+      <c r="A2" s="37"/>
+      <c r="B2" s="37"/>
+      <c r="C2" s="41" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="45" t="s">
+      <c r="D2" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="46" t="s">
+      <c r="E2" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="46" t="s">
+      <c r="F2" s="53" t="s">
+        <v>107</v>
+      </c>
+      <c r="G2" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="G2" s="46" t="s">
+      <c r="H2" s="47" t="s">
         <v>10</v>
       </c>
-      <c r="H2" s="45" t="s">
+      <c r="I2" s="46" t="s">
         <v>11</v>
       </c>
-      <c r="I2" s="45" t="s">
+      <c r="J2" s="46" t="s">
         <v>12</v>
       </c>
-      <c r="J2" s="44" t="s">
+      <c r="K2" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="K2" s="40" t="s">
+      <c r="L2" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="L2" s="45" t="s">
+      <c r="M2" s="46" t="s">
         <v>15</v>
       </c>
-      <c r="M2" s="46" t="s">
+      <c r="N2" s="47" t="s">
         <v>16</v>
       </c>
-      <c r="N2" s="46" t="s">
+      <c r="O2" s="47" t="s">
         <v>17</v>
       </c>
-      <c r="O2" s="42" t="s">
+      <c r="P2" s="43" t="s">
         <v>18</v>
       </c>
-      <c r="P2" s="41" t="s">
+      <c r="Q2" s="42" t="s">
         <v>19</v>
       </c>
-      <c r="Q2" s="36"/>
-      <c r="R2" s="36"/>
-      <c r="S2" s="38" t="s">
+      <c r="R2" s="37"/>
+      <c r="S2" s="37"/>
+      <c r="T2" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="T2" s="36"/>
-      <c r="U2" s="36"/>
-      <c r="V2" s="36"/>
-      <c r="W2" s="36"/>
-      <c r="X2" s="39" t="s">
+      <c r="U2" s="37"/>
+      <c r="V2" s="37"/>
+      <c r="W2" s="37"/>
+      <c r="X2" s="37"/>
+      <c r="Y2" s="40" t="s">
         <v>21</v>
       </c>
-      <c r="Y2" s="36"/>
-      <c r="Z2" s="36"/>
-      <c r="AA2" s="36"/>
-      <c r="AB2" s="36"/>
-      <c r="AC2" s="40" t="s">
+      <c r="Z2" s="37"/>
+      <c r="AA2" s="37"/>
+      <c r="AB2" s="37"/>
+      <c r="AC2" s="37"/>
+      <c r="AD2" s="41" t="s">
         <v>22</v>
       </c>
-      <c r="AD2" s="51" t="s">
+      <c r="AE2" s="52" t="s">
         <v>23</v>
       </c>
-      <c r="AE2" s="40" t="s">
+      <c r="AF2" s="41" t="s">
         <v>24</v>
       </c>
-      <c r="AF2" s="51" t="s">
+      <c r="AG2" s="52" t="s">
         <v>25</v>
       </c>
-      <c r="AG2" s="40" t="s">
+      <c r="AH2" s="41" t="s">
         <v>26</v>
       </c>
-      <c r="AH2" s="51" t="s">
+      <c r="AI2" s="52" t="s">
         <v>27</v>
       </c>
-      <c r="AI2" s="35" t="s">
+      <c r="AJ2" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="AJ2" s="47" t="s">
+      <c r="AK2" s="48" t="s">
         <v>29</v>
       </c>
-      <c r="AK2" s="47" t="s">
+      <c r="AL2" s="48" t="s">
         <v>30</v>
       </c>
-      <c r="AL2" s="47" t="s">
+      <c r="AM2" s="48" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:38" ht="29.25" customHeight="1">
-      <c r="A3" s="36"/>
-      <c r="B3" s="36"/>
-      <c r="C3" s="36"/>
-      <c r="D3" s="36"/>
-      <c r="E3" s="36"/>
-      <c r="F3" s="36"/>
-      <c r="G3" s="36"/>
-      <c r="H3" s="36"/>
-      <c r="I3" s="36"/>
-      <c r="J3" s="36"/>
-      <c r="K3" s="36"/>
-      <c r="L3" s="36"/>
-      <c r="M3" s="36"/>
-      <c r="N3" s="36"/>
-      <c r="O3" s="36"/>
-      <c r="P3" s="1" t="s">
+    <row r="3" spans="1:39" ht="29.25" customHeight="1">
+      <c r="A3" s="37"/>
+      <c r="B3" s="37"/>
+      <c r="C3" s="37"/>
+      <c r="D3" s="37"/>
+      <c r="E3" s="37"/>
+      <c r="F3" s="54"/>
+      <c r="G3" s="37"/>
+      <c r="H3" s="37"/>
+      <c r="I3" s="37"/>
+      <c r="J3" s="37"/>
+      <c r="K3" s="37"/>
+      <c r="L3" s="37"/>
+      <c r="M3" s="37"/>
+      <c r="N3" s="37"/>
+      <c r="O3" s="37"/>
+      <c r="P3" s="37"/>
+      <c r="Q3" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="Q3" s="2" t="s">
+      <c r="R3" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="R3" s="3" t="s">
+      <c r="S3" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="S3" s="4" t="s">
+      <c r="T3" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="T3" s="5" t="s">
+      <c r="U3" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="U3" s="5" t="s">
+      <c r="V3" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="V3" s="6" t="s">
+      <c r="W3" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="W3" s="7" t="s">
+      <c r="X3" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="X3" s="8" t="s">
+      <c r="Y3" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="Y3" s="5" t="s">
+      <c r="Z3" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="Z3" s="5" t="s">
+      <c r="AA3" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="AA3" s="6" t="s">
+      <c r="AB3" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="AB3" s="7" t="s">
+      <c r="AC3" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="AC3" s="36"/>
-      <c r="AD3" s="36"/>
-      <c r="AE3" s="36"/>
-      <c r="AF3" s="36"/>
-      <c r="AG3" s="36"/>
-      <c r="AH3" s="36"/>
-      <c r="AI3" s="36"/>
-      <c r="AJ3" s="36"/>
-      <c r="AK3" s="36"/>
-      <c r="AL3" s="36"/>
+      <c r="AD3" s="37"/>
+      <c r="AE3" s="37"/>
+      <c r="AF3" s="37"/>
+      <c r="AG3" s="37"/>
+      <c r="AH3" s="37"/>
+      <c r="AI3" s="37"/>
+      <c r="AJ3" s="37"/>
+      <c r="AK3" s="37"/>
+      <c r="AL3" s="37"/>
+      <c r="AM3" s="37"/>
     </row>
-    <row r="4" spans="1:38" ht="23.25" customHeight="1">
+    <row r="4" spans="1:39" ht="23.25" customHeight="1">
       <c r="A4" s="9">
         <v>1</v>
       </c>
@@ -1432,81 +1508,86 @@
         <v>45</v>
       </c>
       <c r="C4" s="11"/>
-      <c r="D4" s="12"/>
+      <c r="D4" s="12" t="s">
+        <v>51</v>
+      </c>
       <c r="E4" s="13"/>
-      <c r="F4" s="13" t="s">
+      <c r="F4" s="32" t="s">
+        <v>106</v>
+      </c>
+      <c r="G4" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="G4" s="13" t="s">
+      <c r="H4" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="H4" s="14" t="s">
+      <c r="I4" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="I4" s="13" t="s">
+      <c r="J4" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="J4" s="15" t="s">
+      <c r="K4" s="15" t="s">
         <v>97</v>
       </c>
-      <c r="K4" s="16" t="s">
+      <c r="L4" s="16" t="s">
         <v>100</v>
       </c>
-      <c r="L4" s="14"/>
-      <c r="M4" s="14" t="s">
+      <c r="M4" s="14"/>
+      <c r="N4" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="N4" s="14"/>
-      <c r="O4" s="12" t="s">
+      <c r="O4" s="14"/>
+      <c r="P4" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="P4" s="17" t="s">
+      <c r="Q4" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="Q4" s="18"/>
-      <c r="R4" s="19">
+      <c r="R4" s="18"/>
+      <c r="S4" s="19">
         <v>90231</v>
       </c>
-      <c r="S4" s="20" t="s">
+      <c r="T4" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="T4" s="18"/>
-      <c r="U4" s="18" t="s">
+      <c r="U4" s="18"/>
+      <c r="V4" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="V4" s="18" t="s">
+      <c r="W4" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="W4" s="21"/>
-      <c r="X4" s="20"/>
-      <c r="Y4" s="18" t="s">
+      <c r="X4" s="21"/>
+      <c r="Y4" s="20"/>
+      <c r="Z4" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="Z4" s="18"/>
-      <c r="AA4" s="22"/>
-      <c r="AB4" s="21"/>
-      <c r="AC4" s="23">
+      <c r="AA4" s="18"/>
+      <c r="AB4" s="22"/>
+      <c r="AC4" s="21"/>
+      <c r="AD4" s="23">
         <v>65431</v>
       </c>
-      <c r="AD4" s="21" t="s">
+      <c r="AE4" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="AE4" s="24" t="s">
+      <c r="AF4" s="24" t="s">
         <v>59</v>
       </c>
-      <c r="AF4" s="21"/>
-      <c r="AG4" s="25" t="s">
+      <c r="AG4" s="21"/>
+      <c r="AH4" s="25" t="s">
         <v>80</v>
       </c>
-      <c r="AH4" s="21">
+      <c r="AI4" s="21">
         <v>0</v>
       </c>
-      <c r="AI4" s="9"/>
       <c r="AJ4" s="9"/>
       <c r="AK4" s="9"/>
-      <c r="AL4" s="26"/>
+      <c r="AL4" s="9"/>
+      <c r="AM4" s="26"/>
     </row>
-    <row r="5" spans="1:38" ht="23.25" customHeight="1">
+    <row r="5" spans="1:39" ht="23.25" customHeight="1">
       <c r="A5" s="9">
         <v>2</v>
       </c>
@@ -1522,87 +1603,88 @@
       <c r="E5" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="F5" s="14"/>
-      <c r="G5" s="13" t="s">
+      <c r="F5" s="32"/>
+      <c r="G5" s="14"/>
+      <c r="H5" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="H5" s="27"/>
-      <c r="I5" s="13" t="s">
+      <c r="I5" s="27"/>
+      <c r="J5" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="J5" s="28" t="s">
+      <c r="K5" s="28" t="s">
         <v>66</v>
       </c>
-      <c r="K5" s="16" t="s">
+      <c r="L5" s="16" t="s">
         <v>67</v>
       </c>
-      <c r="L5" s="13" t="s">
+      <c r="M5" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="M5" s="14"/>
-      <c r="N5" s="13" t="s">
+      <c r="N5" s="14"/>
+      <c r="O5" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="O5" s="16" t="s">
+      <c r="P5" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="P5" s="17" t="s">
+      <c r="Q5" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="Q5" s="18" t="s">
+      <c r="R5" s="18" t="s">
         <v>72</v>
       </c>
-      <c r="R5" s="19"/>
-      <c r="S5" s="20" t="s">
+      <c r="S5" s="19"/>
+      <c r="T5" s="20" t="s">
         <v>103</v>
       </c>
-      <c r="T5" s="18" t="s">
+      <c r="U5" s="18" t="s">
         <v>73</v>
       </c>
-      <c r="U5" s="18" t="s">
+      <c r="V5" s="18" t="s">
         <v>74</v>
       </c>
-      <c r="V5" s="22"/>
-      <c r="W5" s="29" t="s">
+      <c r="W5" s="22"/>
+      <c r="X5" s="29" t="s">
         <v>75</v>
       </c>
-      <c r="X5" s="20" t="s">
+      <c r="Y5" s="20" t="s">
         <v>104</v>
       </c>
-      <c r="Y5" s="18" t="s">
+      <c r="Z5" s="18" t="s">
         <v>76</v>
       </c>
-      <c r="Z5" s="18" t="s">
+      <c r="AA5" s="18" t="s">
         <v>77</v>
       </c>
-      <c r="AA5" s="18" t="s">
+      <c r="AB5" s="18" t="s">
         <v>78</v>
       </c>
-      <c r="AB5" s="21"/>
-      <c r="AC5" s="30" t="s">
+      <c r="AC5" s="21"/>
+      <c r="AD5" s="30" t="s">
         <v>79</v>
       </c>
-      <c r="AD5" s="29" t="s">
+      <c r="AE5" s="29" t="s">
         <v>80</v>
       </c>
-      <c r="AE5" s="25" t="s">
+      <c r="AF5" s="25" t="s">
         <v>102</v>
       </c>
-      <c r="AF5" s="29" t="s">
+      <c r="AG5" s="29" t="s">
         <v>81</v>
       </c>
-      <c r="AG5" s="25" t="s">
+      <c r="AH5" s="25" t="s">
         <v>105</v>
       </c>
-      <c r="AH5" s="19"/>
-      <c r="AI5" s="9"/>
+      <c r="AI5" s="19"/>
       <c r="AJ5" s="9"/>
       <c r="AK5" s="9"/>
-      <c r="AL5" s="31" t="s">
+      <c r="AL5" s="9"/>
+      <c r="AM5" s="31" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="6" spans="1:38" ht="23.25" customHeight="1">
+    <row r="6" spans="1:39" ht="23.25" customHeight="1">
       <c r="A6" s="9">
         <v>1</v>
       </c>
@@ -1616,75 +1698,76 @@
       <c r="E6" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="F6" s="13" t="s">
+      <c r="F6" s="32"/>
+      <c r="G6" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="G6" s="14"/>
-      <c r="H6" s="32" t="s">
+      <c r="H6" s="14"/>
+      <c r="I6" s="32" t="s">
         <v>99</v>
       </c>
-      <c r="I6" s="13"/>
-      <c r="J6" s="15" t="s">
+      <c r="J6" s="13"/>
+      <c r="K6" s="15" t="s">
         <v>86</v>
       </c>
-      <c r="K6" s="33"/>
-      <c r="L6" s="14" t="s">
+      <c r="L6" s="33"/>
+      <c r="M6" s="14" t="s">
         <v>101</v>
       </c>
-      <c r="M6" s="13" t="s">
+      <c r="N6" s="13" t="s">
         <v>87</v>
       </c>
-      <c r="N6" s="13" t="s">
+      <c r="O6" s="13" t="s">
         <v>88</v>
       </c>
-      <c r="O6" s="12" t="s">
+      <c r="P6" s="12" t="s">
         <v>102</v>
       </c>
-      <c r="P6" s="17"/>
-      <c r="Q6" s="18" t="s">
+      <c r="Q6" s="17"/>
+      <c r="R6" s="18" t="s">
         <v>89</v>
       </c>
-      <c r="R6" s="29" t="s">
+      <c r="S6" s="29" t="s">
         <v>90</v>
       </c>
-      <c r="S6" s="20"/>
-      <c r="T6" s="18" t="s">
+      <c r="T6" s="20"/>
+      <c r="U6" s="18" t="s">
         <v>91</v>
       </c>
-      <c r="U6" s="18"/>
-      <c r="V6" s="22"/>
-      <c r="W6" s="21"/>
-      <c r="X6" s="20" t="s">
+      <c r="V6" s="18"/>
+      <c r="W6" s="22"/>
+      <c r="X6" s="21"/>
+      <c r="Y6" s="20" t="s">
         <v>56</v>
       </c>
-      <c r="Y6" s="18"/>
-      <c r="Z6" s="18" t="s">
+      <c r="Z6" s="18"/>
+      <c r="AA6" s="18" t="s">
         <v>92</v>
       </c>
-      <c r="AA6" s="22"/>
-      <c r="AB6" s="29" t="s">
+      <c r="AB6" s="22"/>
+      <c r="AC6" s="29" t="s">
         <v>93</v>
       </c>
-      <c r="AC6" s="23"/>
-      <c r="AD6" s="21"/>
-      <c r="AE6" s="25" t="s">
+      <c r="AD6" s="23"/>
+      <c r="AE6" s="21"/>
+      <c r="AF6" s="25" t="s">
         <v>94</v>
       </c>
-      <c r="AF6" s="29" t="s">
+      <c r="AG6" s="29" t="s">
         <v>95</v>
       </c>
-      <c r="AG6" s="25"/>
-      <c r="AH6" s="19">
+      <c r="AH6" s="25"/>
+      <c r="AI6" s="19">
         <v>2</v>
       </c>
-      <c r="AI6" s="9"/>
       <c r="AJ6" s="9"/>
       <c r="AK6" s="9"/>
-      <c r="AL6" s="26" t="s">
+      <c r="AL6" s="9"/>
+      <c r="AM6" s="26" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="7" spans="1:38" ht="15.75" customHeight="1">
+    <row r="7" spans="1:39" ht="15.75" customHeight="1">
       <c r="A7" s="34"/>
       <c r="B7" s="34"/>
       <c r="C7" s="34"/>
@@ -1723,8 +1806,9 @@
       <c r="AJ7" s="34"/>
       <c r="AK7" s="34"/>
       <c r="AL7" s="34"/>
+      <c r="AM7" s="34"/>
     </row>
-    <row r="8" spans="1:38" ht="15.75" customHeight="1">
+    <row r="8" spans="1:39" ht="15.75" customHeight="1">
       <c r="A8" s="34"/>
       <c r="B8" s="34"/>
       <c r="C8" s="34"/>
@@ -1763,8 +1847,9 @@
       <c r="AJ8" s="34"/>
       <c r="AK8" s="34"/>
       <c r="AL8" s="34"/>
+      <c r="AM8" s="34"/>
     </row>
-    <row r="9" spans="1:38" ht="15.75" customHeight="1">
+    <row r="9" spans="1:39" ht="15.75" customHeight="1">
       <c r="A9" s="34"/>
       <c r="B9" s="34"/>
       <c r="C9" s="34"/>
@@ -1803,8 +1888,9 @@
       <c r="AJ9" s="34"/>
       <c r="AK9" s="34"/>
       <c r="AL9" s="34"/>
+      <c r="AM9" s="34"/>
     </row>
-    <row r="10" spans="1:38" ht="15.75" customHeight="1">
+    <row r="10" spans="1:39" ht="15.75" customHeight="1">
       <c r="A10" s="34"/>
       <c r="B10" s="34"/>
       <c r="C10" s="34"/>
@@ -1843,8 +1929,9 @@
       <c r="AJ10" s="34"/>
       <c r="AK10" s="34"/>
       <c r="AL10" s="34"/>
+      <c r="AM10" s="34"/>
     </row>
-    <row r="11" spans="1:38" ht="15.75" customHeight="1">
+    <row r="11" spans="1:39" ht="15.75" customHeight="1">
       <c r="A11" s="34"/>
       <c r="B11" s="34"/>
       <c r="C11" s="34"/>
@@ -1883,8 +1970,9 @@
       <c r="AJ11" s="34"/>
       <c r="AK11" s="34"/>
       <c r="AL11" s="34"/>
+      <c r="AM11" s="34"/>
     </row>
-    <row r="12" spans="1:38" ht="15.75" customHeight="1">
+    <row r="12" spans="1:39" ht="15.75" customHeight="1">
       <c r="A12" s="34"/>
       <c r="B12" s="34"/>
       <c r="C12" s="34"/>
@@ -1923,8 +2011,9 @@
       <c r="AJ12" s="34"/>
       <c r="AK12" s="34"/>
       <c r="AL12" s="34"/>
+      <c r="AM12" s="34"/>
     </row>
-    <row r="13" spans="1:38" ht="15.75" customHeight="1">
+    <row r="13" spans="1:39" ht="15.75" customHeight="1">
       <c r="A13" s="34"/>
       <c r="B13" s="34"/>
       <c r="C13" s="34"/>
@@ -1963,8 +2052,9 @@
       <c r="AJ13" s="34"/>
       <c r="AK13" s="34"/>
       <c r="AL13" s="34"/>
+      <c r="AM13" s="34"/>
     </row>
-    <row r="14" spans="1:38" ht="15.75" customHeight="1">
+    <row r="14" spans="1:39" ht="15.75" customHeight="1">
       <c r="A14" s="34"/>
       <c r="B14" s="34"/>
       <c r="C14" s="34"/>
@@ -2003,8 +2093,9 @@
       <c r="AJ14" s="34"/>
       <c r="AK14" s="34"/>
       <c r="AL14" s="34"/>
+      <c r="AM14" s="34"/>
     </row>
-    <row r="15" spans="1:38" ht="15.75" customHeight="1">
+    <row r="15" spans="1:39" ht="15.75" customHeight="1">
       <c r="A15" s="34"/>
       <c r="B15" s="34"/>
       <c r="C15" s="34"/>
@@ -2043,8 +2134,9 @@
       <c r="AJ15" s="34"/>
       <c r="AK15" s="34"/>
       <c r="AL15" s="34"/>
+      <c r="AM15" s="34"/>
     </row>
-    <row r="16" spans="1:38" ht="15.75" customHeight="1">
+    <row r="16" spans="1:39" ht="15.75" customHeight="1">
       <c r="A16" s="34"/>
       <c r="B16" s="34"/>
       <c r="C16" s="34"/>
@@ -2083,8 +2175,9 @@
       <c r="AJ16" s="34"/>
       <c r="AK16" s="34"/>
       <c r="AL16" s="34"/>
+      <c r="AM16" s="34"/>
     </row>
-    <row r="17" spans="1:38" ht="15.75" customHeight="1">
+    <row r="17" spans="1:39" ht="15.75" customHeight="1">
       <c r="A17" s="34"/>
       <c r="B17" s="34"/>
       <c r="C17" s="34"/>
@@ -2123,161 +2216,43 @@
       <c r="AJ17" s="34"/>
       <c r="AK17" s="34"/>
       <c r="AL17" s="34"/>
-    </row>
-    <row r="18" spans="1:38" ht="15.75" customHeight="1">
-      <c r="A18" s="34"/>
-      <c r="B18" s="34"/>
-      <c r="C18" s="34"/>
-      <c r="D18" s="34"/>
-      <c r="E18" s="34"/>
-      <c r="F18" s="34"/>
-      <c r="G18" s="34"/>
-      <c r="H18" s="34"/>
-      <c r="I18" s="34"/>
-      <c r="J18" s="34"/>
-      <c r="K18" s="34"/>
-      <c r="L18" s="34"/>
-      <c r="M18" s="34"/>
-      <c r="N18" s="34"/>
-      <c r="O18" s="34"/>
-      <c r="P18" s="34"/>
-      <c r="Q18" s="34"/>
-      <c r="R18" s="34"/>
-      <c r="S18" s="34"/>
-      <c r="T18" s="34"/>
-      <c r="U18" s="34"/>
-      <c r="V18" s="34"/>
-      <c r="W18" s="34"/>
-      <c r="X18" s="34"/>
-      <c r="Y18" s="34"/>
-      <c r="Z18" s="34"/>
-      <c r="AA18" s="34"/>
-      <c r="AB18" s="34"/>
-      <c r="AC18" s="34"/>
-      <c r="AD18" s="34"/>
-      <c r="AE18" s="34"/>
-      <c r="AF18" s="34"/>
-      <c r="AG18" s="34"/>
-      <c r="AH18" s="34"/>
-      <c r="AI18" s="34"/>
-      <c r="AJ18" s="34"/>
-      <c r="AK18" s="34"/>
-      <c r="AL18" s="34"/>
-    </row>
-    <row r="19" spans="1:38" ht="15.75" customHeight="1">
-      <c r="A19" s="34"/>
-      <c r="B19" s="34"/>
-      <c r="C19" s="34"/>
-      <c r="D19" s="34"/>
-      <c r="E19" s="34"/>
-      <c r="F19" s="34"/>
-      <c r="G19" s="34"/>
-      <c r="H19" s="34"/>
-      <c r="I19" s="34"/>
-      <c r="J19" s="34"/>
-      <c r="K19" s="34"/>
-      <c r="L19" s="34"/>
-      <c r="M19" s="34"/>
-      <c r="N19" s="34"/>
-      <c r="O19" s="34"/>
-      <c r="P19" s="34"/>
-      <c r="Q19" s="34"/>
-      <c r="R19" s="34"/>
-      <c r="S19" s="34"/>
-      <c r="T19" s="34"/>
-      <c r="U19" s="34"/>
-      <c r="V19" s="34"/>
-      <c r="W19" s="34"/>
-      <c r="X19" s="34"/>
-      <c r="Y19" s="34"/>
-      <c r="Z19" s="34"/>
-      <c r="AA19" s="34"/>
-      <c r="AB19" s="34"/>
-      <c r="AC19" s="34"/>
-      <c r="AD19" s="34"/>
-      <c r="AE19" s="34"/>
-      <c r="AF19" s="34"/>
-      <c r="AG19" s="34"/>
-      <c r="AH19" s="34"/>
-      <c r="AI19" s="34"/>
-      <c r="AJ19" s="34"/>
-      <c r="AK19" s="34"/>
-      <c r="AL19" s="34"/>
-    </row>
-    <row r="20" spans="1:38" ht="15.75" customHeight="1">
-      <c r="A20" s="34"/>
-      <c r="B20" s="34"/>
-      <c r="C20" s="34"/>
-      <c r="D20" s="34"/>
-      <c r="E20" s="34"/>
-      <c r="F20" s="34"/>
-      <c r="G20" s="34"/>
-      <c r="H20" s="34"/>
-      <c r="I20" s="34"/>
-      <c r="J20" s="34"/>
-      <c r="K20" s="34"/>
-      <c r="L20" s="34"/>
-      <c r="M20" s="34"/>
-      <c r="N20" s="34"/>
-      <c r="O20" s="34"/>
-      <c r="P20" s="34"/>
-      <c r="Q20" s="34"/>
-      <c r="R20" s="34"/>
-      <c r="S20" s="34"/>
-      <c r="T20" s="34"/>
-      <c r="U20" s="34"/>
-      <c r="V20" s="34"/>
-      <c r="W20" s="34"/>
-      <c r="X20" s="34"/>
-      <c r="Y20" s="34"/>
-      <c r="Z20" s="34"/>
-      <c r="AA20" s="34"/>
-      <c r="AB20" s="34"/>
-      <c r="AC20" s="34"/>
-      <c r="AD20" s="34"/>
-      <c r="AE20" s="34"/>
-      <c r="AF20" s="34"/>
-      <c r="AG20" s="34"/>
-      <c r="AH20" s="34"/>
-      <c r="AI20" s="34"/>
-      <c r="AJ20" s="34"/>
-      <c r="AK20" s="34"/>
-      <c r="AL20" s="34"/>
+      <c r="AM17" s="34"/>
     </row>
   </sheetData>
-  <mergeCells count="32">
-    <mergeCell ref="AL2:AL3"/>
+  <mergeCells count="33">
     <mergeCell ref="AK2:AK3"/>
-    <mergeCell ref="K1:R1"/>
-    <mergeCell ref="S1:AD1"/>
-    <mergeCell ref="C1:J1"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="AJ2:AJ3"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="AF2:AF3"/>
-    <mergeCell ref="AC2:AC3"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="AG2:AG3"/>
     <mergeCell ref="AD2:AD3"/>
     <mergeCell ref="AE2:AE3"/>
+    <mergeCell ref="AF2:AF3"/>
+    <mergeCell ref="AJ2:AJ3"/>
     <mergeCell ref="AI2:AI3"/>
     <mergeCell ref="AH2:AH3"/>
-    <mergeCell ref="B1:B3"/>
-    <mergeCell ref="A1:A3"/>
-    <mergeCell ref="S2:W2"/>
-    <mergeCell ref="X2:AB2"/>
-    <mergeCell ref="AG2:AG3"/>
-    <mergeCell ref="P2:R2"/>
-    <mergeCell ref="O2:O3"/>
-    <mergeCell ref="AE1:AL1"/>
-    <mergeCell ref="J2:J3"/>
-    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="Q2:S2"/>
+    <mergeCell ref="P2:P3"/>
+    <mergeCell ref="AF1:AM1"/>
     <mergeCell ref="K2:K3"/>
     <mergeCell ref="L2:L3"/>
     <mergeCell ref="M2:M3"/>
     <mergeCell ref="N2:N3"/>
+    <mergeCell ref="O2:O3"/>
+    <mergeCell ref="AM2:AM3"/>
+    <mergeCell ref="AL2:AL3"/>
+    <mergeCell ref="L1:S1"/>
+    <mergeCell ref="T1:AE1"/>
+    <mergeCell ref="C1:K1"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="B1:B3"/>
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="T2:X2"/>
+    <mergeCell ref="Y2:AC2"/>
+    <mergeCell ref="J2:J3"/>
+    <mergeCell ref="I2:I3"/>
     <mergeCell ref="H2:H3"/>
-    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="C2:C3"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
